--- a/testcase/test_gcenter.xlsx
+++ b/testcase/test_gcenter.xlsx
@@ -909,7 +909,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/testcase/test_gcenter.xlsx
+++ b/testcase/test_gcenter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -371,26 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>case名称
-在测试中显示</t>
-    <rPh sb="4" eb="5">
-      <t>ming'c</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ce'shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xian'shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品信息info接口</t>
     <rPh sb="0" eb="1">
       <t>shang'p</t>
@@ -404,47 +384,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>微信安全</t>
-    <rPh sb="0" eb="1">
-      <t>wei'x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>an'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品SKU接口</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>jie'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品详情</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang'q</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <rPh sb="0" eb="1">
-      <t>shang'p</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xin'x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"data":{"add_cart_num":43,"tags":["春天礼可用券","其他配饰","1.10PC家居1997件","3月12其他清仓","壳儿","手机壳","3C家电","春节不打烊","创意生活","数码","3月12数码特惠"]},"status":0}</t>
+    <t>{"data":{"add_cart_num":413,"tags":["春天礼可用券","其他配饰","11.10PC家居1997件","3月12其他清仓","壳儿","手机壳","3C家电","春节不打烊","创意生活","数码","3月12数码特惠"]},"status":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case名称
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nose 执行时必须使用英文</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ming'c</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zhi'x</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bi'x</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ying</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechart_ser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_sku_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,6 +504,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -909,12 +907,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -929,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="13" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>24</v>
@@ -998,11 +996,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>52</v>
+      <c r="A3" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>42</v>
@@ -1021,7 +1019,7 @@
         <v>45</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>8</v>
@@ -1031,7 +1029,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1060,8 +1058,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>49</v>
+      <c r="A5" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>46</v>
@@ -1089,8 +1087,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="22" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>50</v>
+      <c r="A6" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>38</v>
